--- a/Instances/K5014123_NonStationary.xlsx
+++ b/Instances/K5014123_NonStationary.xlsx
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="n">
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10.23775</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.713975</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13.0425775</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
